--- a/Assets/300_Data/ExcelData/MonsterDataTable.xlsx
+++ b/Assets/300_Data/ExcelData/MonsterDataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Project\LevelDesignDev\LevelDesignDev\Assets\300_Data\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1A27DE-CB4C-4088-82B6-AA19F1FF3B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261E9BC0-CD01-4DC5-A8AB-93EAC1AB0DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="1170" windowWidth="18000" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19350" yWindow="1995" windowWidth="18000" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterSheet01" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -457,7 +457,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -477,7 +477,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="1">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -497,7 +497,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="1">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>

--- a/Assets/300_Data/ExcelData/MonsterDataTable.xlsx
+++ b/Assets/300_Data/ExcelData/MonsterDataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Project\LevelDesignDev\LevelDesignDev\Assets\300_Data\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261E9BC0-CD01-4DC5-A8AB-93EAC1AB0DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B16098-83CB-46E9-833F-CDEFF5B88C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19350" yWindow="1995" windowWidth="18000" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="1275" windowWidth="28980" windowHeight="14325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterSheet01" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -460,7 +460,7 @@
         <v>0.1</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
